--- a/Departments/IS.xlsx
+++ b/Departments/IS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA798103-CDB7-4485-9762-03D4BECDF995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A7E67E-E62D-4064-ACAC-93206528CF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{957CB067-B7B2-4C43-AD51-78B867F4FDEB}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" xr2:uid="{957CB067-B7B2-4C43-AD51-78B867F4FDEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -652,6 +646,12 @@
   </si>
   <si>
     <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I82"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,2218 +1025,2218 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
         <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
         <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
         <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
         <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
         <v>104</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
         <v>109</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" t="s">
         <v>114</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
         <v>115</v>
-      </c>
-      <c r="E44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
         <v>130</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
         <v>133</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
         <v>144</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
         <v>147</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
         <v>154</v>
-      </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
         <v>157</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s">
-        <v>158</v>
-      </c>
-      <c r="E62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
         <v>160</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s">
-        <v>161</v>
-      </c>
-      <c r="E63" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" t="s">
+        <v>155</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
         <v>163</v>
-      </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>164</v>
-      </c>
-      <c r="E64" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
         <v>166</v>
-      </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s">
-        <v>167</v>
-      </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
         <v>195</v>
-      </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s">
-        <v>196</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" t="s">
+        <v>201</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>200</v>
+      </c>
+      <c r="H82" t="s">
         <v>202</v>
-      </c>
-      <c r="D82" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s">
-        <v>202</v>
-      </c>
-      <c r="H82" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/IS.xlsx
+++ b/Departments/IS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A7E67E-E62D-4064-ACAC-93206528CF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEF8D7D-4B0D-4A1E-AC42-3A14B5522FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" xr2:uid="{957CB067-B7B2-4C43-AD51-78B867F4FDEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{957CB067-B7B2-4C43-AD51-78B867F4FDEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="203">
   <si>
     <t>Course_Code</t>
   </si>
@@ -537,9 +537,6 @@
     <t>IS 800 - Problems of International Policy and Practice</t>
   </si>
   <si>
-    <t>REQ - graduate students enrolled in the MA in International Studies, or permission of the instructor.</t>
-  </si>
-  <si>
     <t>IS806</t>
   </si>
   <si>
@@ -606,12 +603,6 @@
     <t>IS 835 - Social and Political Change in Latin America</t>
   </si>
   <si>
-    <t>IS840</t>
-  </si>
-  <si>
-    <t>IS 840 - Perspectives in International Studies</t>
-  </si>
-  <si>
     <t>IS844</t>
   </si>
   <si>
@@ -627,12 +618,6 @@
     <t>REQ: Enrollment in the MA in International Studies program</t>
   </si>
   <si>
-    <t>IS888</t>
-  </si>
-  <si>
-    <t>IS 888 - MA Paper</t>
-  </si>
-  <si>
     <t>IS898</t>
   </si>
   <si>
@@ -652,6 +637,15 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>REQ-Graduate students enrolled in the MA in International Studies, or permission of the instructor.</t>
+  </si>
+  <si>
+    <t>IS804</t>
+  </si>
+  <si>
+    <t>IS 804 - Approaches to International Studies</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0B0551-E280-4878-9553-118389DA6930}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,10 +1019,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1042,16 +1036,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1060,15 +1054,15 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1077,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1094,7 +1088,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1103,7 +1097,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1120,7 +1114,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1129,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1142,14 +1136,11 @@
       </c>
       <c r="H5" t="s">
         <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1158,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1171,14 +1162,11 @@
       </c>
       <c r="H6" t="s">
         <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1187,7 +1175,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1204,7 +1192,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1213,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1226,14 +1214,11 @@
       </c>
       <c r="H8" t="s">
         <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1242,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1255,14 +1240,11 @@
       </c>
       <c r="H9" t="s">
         <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1271,7 +1253,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1284,14 +1266,11 @@
       </c>
       <c r="H10" t="s">
         <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1300,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1313,14 +1292,11 @@
       </c>
       <c r="H11" t="s">
         <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1329,10 +1305,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1344,12 +1320,12 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1358,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1371,14 +1347,11 @@
       </c>
       <c r="H13" t="s">
         <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1387,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -1400,11 +1373,14 @@
       </c>
       <c r="H14" t="s">
         <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1413,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1428,12 +1404,12 @@
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1442,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -1457,12 +1433,12 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1471,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1484,11 +1460,14 @@
       </c>
       <c r="H17" t="s">
         <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1497,7 +1476,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1514,7 +1493,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1523,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1538,12 +1517,12 @@
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1552,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1565,11 +1544,14 @@
       </c>
       <c r="H20" t="s">
         <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1578,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1591,14 +1573,11 @@
       </c>
       <c r="H21" t="s">
         <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1607,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1622,12 +1601,12 @@
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1636,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1651,12 +1630,12 @@
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1665,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1678,11 +1657,14 @@
       </c>
       <c r="H24" t="s">
         <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1691,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1706,12 +1688,12 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1720,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1737,7 +1719,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1746,7 +1728,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1763,7 +1745,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1772,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1785,11 +1767,14 @@
       </c>
       <c r="H28" t="s">
         <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1798,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1811,11 +1796,14 @@
       </c>
       <c r="H29" t="s">
         <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1824,7 +1812,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1841,7 +1829,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1850,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1867,7 +1855,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1876,7 +1864,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -1893,7 +1881,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1902,7 +1890,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1915,11 +1903,14 @@
       </c>
       <c r="H33" t="s">
         <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1928,7 +1919,7 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -1945,7 +1936,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1954,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1967,11 +1958,14 @@
       </c>
       <c r="H35" t="s">
         <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1980,7 +1974,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -1993,11 +1987,14 @@
       </c>
       <c r="H36" t="s">
         <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -2006,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -2019,11 +2016,14 @@
       </c>
       <c r="H37" t="s">
         <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -2045,11 +2045,14 @@
       </c>
       <c r="H38" t="s">
         <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2058,7 +2061,7 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -2075,7 +2078,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2084,10 +2087,10 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -2097,14 +2100,11 @@
       </c>
       <c r="H40" t="s">
         <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -2113,7 +2113,7 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -2126,14 +2126,11 @@
       </c>
       <c r="H41" t="s">
         <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -2142,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -2155,14 +2152,11 @@
       </c>
       <c r="H42" t="s">
         <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -2171,7 +2165,7 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -2188,7 +2182,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -2197,10 +2191,10 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -2212,12 +2206,12 @@
         <v>13</v>
       </c>
       <c r="I44" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -2226,7 +2220,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -2241,12 +2235,12 @@
         <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -2255,7 +2249,7 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -2272,7 +2266,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2281,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -2294,11 +2288,14 @@
       </c>
       <c r="H47" t="s">
         <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2307,7 +2304,7 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -2320,11 +2317,14 @@
       </c>
       <c r="H48" t="s">
         <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2333,7 +2333,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2359,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -2372,11 +2372,14 @@
       </c>
       <c r="H50" t="s">
         <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2385,7 +2388,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -2400,12 +2403,12 @@
         <v>13</v>
       </c>
       <c r="I51" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2414,7 +2417,7 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -2427,14 +2430,11 @@
       </c>
       <c r="H52" t="s">
         <v>13</v>
-      </c>
-      <c r="I52" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2443,7 +2443,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -2456,14 +2456,11 @@
       </c>
       <c r="H53" t="s">
         <v>13</v>
-      </c>
-      <c r="I53" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2472,7 +2469,7 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -2485,11 +2482,14 @@
       </c>
       <c r="H54" t="s">
         <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2498,7 +2498,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -2511,11 +2511,14 @@
       </c>
       <c r="H55" t="s">
         <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2524,7 +2527,7 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -2537,11 +2540,14 @@
       </c>
       <c r="H56" t="s">
         <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2550,7 +2556,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -2565,12 +2571,12 @@
         <v>13</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -2579,10 +2585,10 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -2594,12 +2600,12 @@
         <v>13</v>
       </c>
       <c r="I58" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -2608,7 +2614,7 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -2621,11 +2627,14 @@
       </c>
       <c r="H59" t="s">
         <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -2634,7 +2643,7 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -2651,7 +2660,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -2660,7 +2669,7 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -2673,14 +2682,11 @@
       </c>
       <c r="H61" t="s">
         <v>13</v>
-      </c>
-      <c r="I61" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -2689,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -2702,14 +2708,11 @@
       </c>
       <c r="H62" t="s">
         <v>13</v>
-      </c>
-      <c r="I62" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2718,7 +2721,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2731,14 +2734,11 @@
       </c>
       <c r="H63" t="s">
         <v>13</v>
-      </c>
-      <c r="I63" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -2747,10 +2747,10 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
@@ -2760,14 +2760,11 @@
       </c>
       <c r="H64" t="s">
         <v>13</v>
-      </c>
-      <c r="I64" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -2776,7 +2773,7 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2789,14 +2786,11 @@
       </c>
       <c r="H65" t="s">
         <v>13</v>
-      </c>
-      <c r="I65" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -2805,7 +2799,7 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -2822,7 +2816,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -2831,7 +2825,7 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2848,7 +2842,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -2857,7 +2851,7 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -2874,7 +2868,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -2883,7 +2877,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -2900,7 +2894,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -2909,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2926,7 +2920,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -2935,7 +2929,7 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2952,7 +2946,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -2961,7 +2955,7 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -2978,7 +2972,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -2987,7 +2981,7 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -3004,7 +2998,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -3013,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -3030,7 +3024,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -3039,7 +3033,7 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -3056,7 +3050,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -3065,7 +3059,7 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -3082,16 +3076,16 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
         <v>189</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" t="s">
-        <v>190</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -3108,7 +3102,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -3117,7 +3111,7 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -3134,7 +3128,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -3143,7 +3137,7 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -3158,12 +3152,12 @@
         <v>13</v>
       </c>
       <c r="I79" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -3172,7 +3166,7 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -3189,7 +3183,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -3198,7 +3192,7 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -3211,32 +3205,6 @@
       </c>
       <c r="H81" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
-        <v>200</v>
-      </c>
-      <c r="D82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E82" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s">
-        <v>200</v>
-      </c>
-      <c r="H82" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
